--- a/文書/01.基本設計書/【Kai9Tmpl】シングル表_基本設計書.xlsx
+++ b/文書/01.基本設計書/【Kai9Tmpl】シングル表_基本設計書.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/10.Kai9Tmpl/文書/01.基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{980575E1-0C28-40F7-B52A-108367EB180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA079308-9536-4984-92D6-7FB679FD266E}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{980575E1-0C28-40F7-B52A-108367EB180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF41741-A2B8-48C7-B697-CC1465C9DD0F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
     <sheet name="改訂履歴" sheetId="2" r:id="rId2"/>
     <sheet name="機能一覧" sheetId="1" r:id="rId3"/>
-    <sheet name="構成図" sheetId="5" r:id="rId4"/>
-    <sheet name="処理フロー" sheetId="4" r:id="rId5"/>
-    <sheet name="【画面】遷移" sheetId="6" r:id="rId6"/>
-    <sheet name="【画面】登録画面" sheetId="8" r:id="rId7"/>
+    <sheet name="処理フロー" sheetId="4" r:id="rId4"/>
+    <sheet name="【画面】遷移" sheetId="6" r:id="rId5"/>
+    <sheet name="【画面】登録画面" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">【画面】登録画面!$A$1:$AC$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">処理フロー!$A$3:$AP$15</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">【画面】遷移!$4:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">【画面】登録画面!$22:$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">【画面】登録画面!$A$1:$AC$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">処理フロー!$A$3:$AP$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">【画面】遷移!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">【画面】登録画面!$22:$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>宮村</t>
     <rPh sb="0" eb="2">
@@ -224,13 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cドラ確認</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>他処理</t>
     <rPh sb="0" eb="1">
       <t>ホカ</t>
@@ -262,228 +254,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>システム構成図</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Windowsサーバ群に対して、Cドライブのディスク容量確認を行う</t>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様概要</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバ情報(IP、ホスト名、実行タイミング、等）を検索し、実行タイミングが1週間以内のサーバを特定する。</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュウカン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結果を集約しKai9SomのWEB画面上に表示する。エクセルでダウンロードする事も可能</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウヤク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB設計</t>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OS種別</t>
-    <rPh sb="2" eb="4">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows2019、2016など</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IP、ホスト名など</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>環境</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発、検証、本番など</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホンバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイミング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第一日曜日、第四土曜日 など</t>
-    <rPh sb="0" eb="2">
-      <t>ダイイチ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニチヨウビ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨン</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ドヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トランザクション</t>
-  </si>
-  <si>
-    <t>Cドラ確認情報</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各情報を正規化したDB</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>セイキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入出力</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウシュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cドラ確認台帳</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ダイチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各マスタの自動生成＆上書き更新（入力チェック機能も必要）</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -506,28 +276,6 @@
   <si>
     <t>2023/05/30　08:43</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>特定したサーバに対し、WinRMを用いて、Cドライブ空き容量を取得する。</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>基本設計書
@@ -982,7 +730,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,27 +858,6 @@
       <b/>
       <sz val="12"/>
       <color theme="8" tint="0.79998168889431442"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="8" tint="0.79998168889431442"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1162,7 +889,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,12 +911,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,9 +1347,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1738,36 +1459,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1777,16 +1492,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
@@ -1801,6 +1516,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1825,15 +1578,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1842,33 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1888,11 +1605,41 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1900,45 +1647,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="6" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="30" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1968,910 +1679,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0324465E-27C7-42EC-93DA-04D70D40F933}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457199" y="1238250"/>
-          <a:ext cx="2962275" cy="2552700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Kai9</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サーバ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92433047-36E0-47C8-BA0A-0816EC41384A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1504950" y="1447801"/>
-          <a:ext cx="1695450" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Kai9Test</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="002060"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C299BD95-E7C9-4F4C-AA8C-84B450C38D6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="2266951"/>
-          <a:ext cx="1695450" cy="1362074"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Kai9Som</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="002060"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF154F78-44B7-438B-90AA-87BCFF6B553D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3219450" y="2219326"/>
-          <a:ext cx="1714500" cy="728662"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2126A7-6542-4DFF-B69B-EB435591CF27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191001" y="1971675"/>
-          <a:ext cx="628650" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>WinRM</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF9182D-95D9-4E45-87B6-BB3F137AF23F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4962525" y="1905001"/>
-          <a:ext cx="1695450" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Windows</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サーバ群</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="307200" cy="307200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="グラフィックス 9" descr="サーバー 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887BA7BD-C39A-4B1F-B90E-AC8931A3B3DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6296025" y="2124075"/>
-          <a:ext cx="307200" cy="307200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914400" cy="914400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="グラフィックス 10" descr="データベース 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35FC817-54E7-497F-AADE-44F124CB0009}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2171700" y="2647950"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457EA624-0C1A-4144-9825-9E23FC909D1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1733550" y="3209925"/>
-          <a:ext cx="752474" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>各情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64275</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="357225" cy="357225"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="グラフィックス 13" descr="バッジ 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8437EAAF-A910-49EC-90AB-5A669C74AB74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4988700" y="2169300"/>
-          <a:ext cx="357225" cy="357225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>42825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>176175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="357225" cy="357225"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="グラフィックス 14" descr="バッジ 1 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE98B3D-FB5C-4CDE-AB44-5A1A82407814}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2909850" y="3081300"/>
-          <a:ext cx="357225" cy="357225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="吹き出し: 線 (枠付き、強調線付き) 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB1ACEC-EB44-4211-9FF6-BF083D86F784}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600450" y="3076575"/>
-          <a:ext cx="657225" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="accentBorderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 68750"/>
-            <a:gd name="adj4" fmla="val -61521"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>トリガ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="吹き出し: 線 (枠付き、強調線付き) 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6CECA9-8A17-4E04-BF21-3B608AD1BB93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="2200275"/>
-          <a:ext cx="657225" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="accentBorderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 46875"/>
-            <a:gd name="adj4" fmla="val -42680"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>収集</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4092,7 +2899,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4785,7 +3592,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5298,44 +4105,44 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="81"/>
+      <c r="I4" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="99"/>
       <c r="AS4" s="12"/>
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
@@ -5354,42 +4161,42 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="83"/>
-      <c r="AP5" s="83"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="84"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="101"/>
+      <c r="AO5" s="101"/>
+      <c r="AP5" s="101"/>
+      <c r="AQ5" s="101"/>
+      <c r="AR5" s="102"/>
       <c r="AS5" s="12"/>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
@@ -5408,42 +4215,42 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="83"/>
-      <c r="AP6" s="83"/>
-      <c r="AQ6" s="83"/>
-      <c r="AR6" s="84"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="101"/>
+      <c r="AI6" s="101"/>
+      <c r="AJ6" s="101"/>
+      <c r="AK6" s="101"/>
+      <c r="AL6" s="101"/>
+      <c r="AM6" s="101"/>
+      <c r="AN6" s="101"/>
+      <c r="AO6" s="101"/>
+      <c r="AP6" s="101"/>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="102"/>
       <c r="AS6" s="12"/>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
@@ -5462,42 +4269,42 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="83"/>
-      <c r="AQ7" s="83"/>
-      <c r="AR7" s="84"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="101"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="102"/>
       <c r="AS7" s="12"/>
       <c r="AT7" s="12"/>
       <c r="AU7" s="12"/>
@@ -5516,42 +4323,42 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="84"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="102"/>
       <c r="AS8" s="12"/>
       <c r="AT8" s="12"/>
       <c r="AU8" s="12"/>
@@ -5570,42 +4377,42 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="84"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="101"/>
+      <c r="AN9" s="101"/>
+      <c r="AO9" s="101"/>
+      <c r="AP9" s="101"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="102"/>
       <c r="AS9" s="12"/>
       <c r="AT9" s="12"/>
       <c r="AU9" s="12"/>
@@ -5624,42 +4431,42 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="84"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="101"/>
+      <c r="AL10" s="101"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="101"/>
+      <c r="AO10" s="101"/>
+      <c r="AP10" s="101"/>
+      <c r="AQ10" s="101"/>
+      <c r="AR10" s="102"/>
       <c r="AS10" s="12"/>
       <c r="AT10" s="12"/>
       <c r="AU10" s="12"/>
@@ -5678,42 +4485,42 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="83"/>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="84"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="101"/>
+      <c r="AN11" s="101"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="101"/>
+      <c r="AQ11" s="101"/>
+      <c r="AR11" s="102"/>
       <c r="AS11" s="8"/>
       <c r="AT11" s="8"/>
       <c r="AU11" s="8"/>
@@ -5732,42 +4539,42 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="86"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="86"/>
-      <c r="AO12" s="86"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="87"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="104"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="104"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="104"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="104"/>
+      <c r="AR12" s="105"/>
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
       <c r="AU12" s="8"/>
@@ -6241,28 +5048,28 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="88" t="s">
+      <c r="AF21" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="89"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="89"/>
-      <c r="AS21" s="89"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="89"/>
-      <c r="AV21" s="89"/>
-      <c r="AW21" s="89"/>
-      <c r="AX21" s="89"/>
-      <c r="AY21" s="89"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="94"/>
+      <c r="AP21" s="94"/>
+      <c r="AQ21" s="94"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="94"/>
+      <c r="AT21" s="94"/>
+      <c r="AU21" s="94"/>
+      <c r="AV21" s="94"/>
+      <c r="AW21" s="94"/>
+      <c r="AX21" s="94"/>
+      <c r="AY21" s="94"/>
       <c r="AZ21" s="7"/>
     </row>
     <row r="22" spans="1:52" ht="15.75" customHeight="1">
@@ -6297,26 +5104,26 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="89"/>
-      <c r="AO22" s="89"/>
-      <c r="AP22" s="89"/>
-      <c r="AQ22" s="89"/>
-      <c r="AR22" s="89"/>
-      <c r="AS22" s="89"/>
-      <c r="AT22" s="89"/>
-      <c r="AU22" s="89"/>
-      <c r="AV22" s="89"/>
-      <c r="AW22" s="89"/>
-      <c r="AX22" s="89"/>
-      <c r="AY22" s="89"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="94"/>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="94"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="94"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
+      <c r="AU22" s="94"/>
+      <c r="AV22" s="94"/>
+      <c r="AW22" s="94"/>
+      <c r="AX22" s="94"/>
+      <c r="AY22" s="94"/>
       <c r="AZ22" s="7"/>
     </row>
     <row r="23" spans="1:52" ht="15.75" customHeight="1">
@@ -6351,28 +5158,28 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
       <c r="AE23" s="8"/>
-      <c r="AF23" s="88" t="s">
+      <c r="AF23" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="89"/>
-      <c r="AO23" s="89"/>
-      <c r="AP23" s="89"/>
-      <c r="AQ23" s="89"/>
-      <c r="AR23" s="89"/>
-      <c r="AS23" s="89"/>
-      <c r="AT23" s="89"/>
-      <c r="AU23" s="89"/>
-      <c r="AV23" s="89"/>
-      <c r="AW23" s="89"/>
-      <c r="AX23" s="89"/>
-      <c r="AY23" s="89"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="94"/>
+      <c r="AM23" s="94"/>
+      <c r="AN23" s="94"/>
+      <c r="AO23" s="94"/>
+      <c r="AP23" s="94"/>
+      <c r="AQ23" s="94"/>
+      <c r="AR23" s="94"/>
+      <c r="AS23" s="94"/>
+      <c r="AT23" s="94"/>
+      <c r="AU23" s="94"/>
+      <c r="AV23" s="94"/>
+      <c r="AW23" s="94"/>
+      <c r="AX23" s="94"/>
+      <c r="AY23" s="94"/>
       <c r="AZ23" s="7"/>
     </row>
     <row r="24" spans="1:52" ht="15.75" customHeight="1">
@@ -6407,26 +5214,26 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="89"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="89"/>
-      <c r="AO24" s="89"/>
-      <c r="AP24" s="89"/>
-      <c r="AQ24" s="89"/>
-      <c r="AR24" s="89"/>
-      <c r="AS24" s="89"/>
-      <c r="AT24" s="89"/>
-      <c r="AU24" s="89"/>
-      <c r="AV24" s="89"/>
-      <c r="AW24" s="89"/>
-      <c r="AX24" s="89"/>
-      <c r="AY24" s="89"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="94"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94"/>
+      <c r="AT24" s="94"/>
+      <c r="AU24" s="94"/>
+      <c r="AV24" s="94"/>
+      <c r="AW24" s="94"/>
+      <c r="AX24" s="94"/>
+      <c r="AY24" s="94"/>
       <c r="AZ24" s="7"/>
     </row>
     <row r="25" spans="1:52" ht="15.75" customHeight="1">
@@ -6461,28 +5268,28 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AF25" s="88" t="s">
+      <c r="AF25" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="AG25" s="88"/>
-      <c r="AH25" s="88"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="89"/>
-      <c r="AQ25" s="89"/>
-      <c r="AR25" s="89"/>
-      <c r="AS25" s="89"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="89"/>
-      <c r="AV25" s="89"/>
-      <c r="AW25" s="89"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="89"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="95"/>
+      <c r="AK25" s="95"/>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="94"/>
+      <c r="AN25" s="94"/>
+      <c r="AO25" s="94"/>
+      <c r="AP25" s="94"/>
+      <c r="AQ25" s="94"/>
+      <c r="AR25" s="94"/>
+      <c r="AS25" s="94"/>
+      <c r="AT25" s="94"/>
+      <c r="AU25" s="94"/>
+      <c r="AV25" s="94"/>
+      <c r="AW25" s="94"/>
+      <c r="AX25" s="94"/>
+      <c r="AY25" s="94"/>
       <c r="AZ25" s="7"/>
     </row>
     <row r="26" spans="1:52" ht="15.75" customHeight="1">
@@ -6517,26 +5324,26 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="89"/>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="89"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="89"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="94"/>
+      <c r="AM26" s="94"/>
+      <c r="AN26" s="94"/>
+      <c r="AO26" s="94"/>
+      <c r="AP26" s="94"/>
+      <c r="AQ26" s="94"/>
+      <c r="AR26" s="94"/>
+      <c r="AS26" s="94"/>
+      <c r="AT26" s="94"/>
+      <c r="AU26" s="94"/>
+      <c r="AV26" s="94"/>
+      <c r="AW26" s="94"/>
+      <c r="AX26" s="94"/>
+      <c r="AY26" s="94"/>
       <c r="AZ26" s="7"/>
     </row>
     <row r="27" spans="1:52" ht="15.75" customHeight="1">
@@ -6571,28 +5378,28 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
-      <c r="AF27" s="88" t="s">
+      <c r="AF27" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AG27" s="88"/>
-      <c r="AH27" s="88"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="88"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="90"/>
-      <c r="AN27" s="90"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="90"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="90"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="95"/>
+      <c r="AL27" s="96"/>
+      <c r="AM27" s="96"/>
+      <c r="AN27" s="96"/>
+      <c r="AO27" s="96"/>
+      <c r="AP27" s="96"/>
+      <c r="AQ27" s="96"/>
+      <c r="AR27" s="96"/>
+      <c r="AS27" s="96"/>
+      <c r="AT27" s="96"/>
+      <c r="AU27" s="96"/>
+      <c r="AV27" s="96"/>
+      <c r="AW27" s="96"/>
+      <c r="AX27" s="96"/>
+      <c r="AY27" s="96"/>
       <c r="AZ27" s="7"/>
     </row>
     <row r="28" spans="1:52" ht="15.75" customHeight="1">
@@ -6627,26 +5434,26 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="88"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="88"/>
-      <c r="AK28" s="88"/>
-      <c r="AL28" s="90"/>
-      <c r="AM28" s="90"/>
-      <c r="AN28" s="90"/>
-      <c r="AO28" s="90"/>
-      <c r="AP28" s="90"/>
-      <c r="AQ28" s="90"/>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="90"/>
-      <c r="AU28" s="90"/>
-      <c r="AV28" s="90"/>
-      <c r="AW28" s="90"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="90"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="95"/>
+      <c r="AK28" s="95"/>
+      <c r="AL28" s="96"/>
+      <c r="AM28" s="96"/>
+      <c r="AN28" s="96"/>
+      <c r="AO28" s="96"/>
+      <c r="AP28" s="96"/>
+      <c r="AQ28" s="96"/>
+      <c r="AR28" s="96"/>
+      <c r="AS28" s="96"/>
+      <c r="AT28" s="96"/>
+      <c r="AU28" s="96"/>
+      <c r="AV28" s="96"/>
+      <c r="AW28" s="96"/>
+      <c r="AX28" s="96"/>
+      <c r="AY28" s="96"/>
       <c r="AZ28" s="7"/>
     </row>
     <row r="29" spans="1:52" ht="15.75" customHeight="1">
@@ -6681,28 +5488,28 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
-      <c r="AF29" s="88" t="s">
+      <c r="AF29" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="89"/>
-      <c r="AM29" s="89"/>
-      <c r="AN29" s="89"/>
-      <c r="AO29" s="89"/>
-      <c r="AP29" s="89"/>
-      <c r="AQ29" s="89"/>
-      <c r="AR29" s="89"/>
-      <c r="AS29" s="89"/>
-      <c r="AT29" s="89"/>
-      <c r="AU29" s="89"/>
-      <c r="AV29" s="89"/>
-      <c r="AW29" s="89"/>
-      <c r="AX29" s="89"/>
-      <c r="AY29" s="89"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="94"/>
+      <c r="AM29" s="94"/>
+      <c r="AN29" s="94"/>
+      <c r="AO29" s="94"/>
+      <c r="AP29" s="94"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="94"/>
+      <c r="AX29" s="94"/>
+      <c r="AY29" s="94"/>
       <c r="AZ29" s="7"/>
     </row>
     <row r="30" spans="1:52" ht="15.75" customHeight="1">
@@ -6737,26 +5544,26 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="88"/>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="88"/>
-      <c r="AK30" s="88"/>
-      <c r="AL30" s="89"/>
-      <c r="AM30" s="89"/>
-      <c r="AN30" s="89"/>
-      <c r="AO30" s="89"/>
-      <c r="AP30" s="89"/>
-      <c r="AQ30" s="89"/>
-      <c r="AR30" s="89"/>
-      <c r="AS30" s="89"/>
-      <c r="AT30" s="89"/>
-      <c r="AU30" s="89"/>
-      <c r="AV30" s="89"/>
-      <c r="AW30" s="89"/>
-      <c r="AX30" s="89"/>
-      <c r="AY30" s="89"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="95"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="94"/>
+      <c r="AM30" s="94"/>
+      <c r="AN30" s="94"/>
+      <c r="AO30" s="94"/>
+      <c r="AP30" s="94"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="94"/>
+      <c r="AS30" s="94"/>
+      <c r="AT30" s="94"/>
+      <c r="AU30" s="94"/>
+      <c r="AV30" s="94"/>
+      <c r="AW30" s="94"/>
+      <c r="AX30" s="94"/>
+      <c r="AY30" s="94"/>
       <c r="AZ30" s="7"/>
     </row>
     <row r="31" spans="1:52" ht="15.75" customHeight="1">
@@ -7031,17 +5838,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I4:AR12"/>
+    <mergeCell ref="AF21:AK22"/>
+    <mergeCell ref="AL21:AY22"/>
+    <mergeCell ref="AF23:AK24"/>
+    <mergeCell ref="AL23:AY24"/>
     <mergeCell ref="AL25:AY26"/>
     <mergeCell ref="AF27:AK28"/>
     <mergeCell ref="AL27:AY28"/>
     <mergeCell ref="AF29:AK30"/>
     <mergeCell ref="AL29:AY30"/>
     <mergeCell ref="AF25:AK26"/>
-    <mergeCell ref="I4:AR12"/>
-    <mergeCell ref="AF21:AK22"/>
-    <mergeCell ref="AL21:AY22"/>
-    <mergeCell ref="AF23:AK24"/>
-    <mergeCell ref="AL23:AY24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7743,18 +6550,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92" t="s">
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="93"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="19" t="s">
@@ -7782,7 +6589,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>21</v>
@@ -7797,10 +6604,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>23</v>
@@ -7995,335 +6802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C506EFF-8BB7-4D73-BCAC-EA0B621A6353}">
-  <dimension ref="A1:AL42"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.375" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="16384" width="5.375" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" s="42" customFormat="1" ht="12">
-      <c r="A1" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-    </row>
-    <row r="2" spans="1:38" s="42" customFormat="1" ht="12">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="B4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="B6" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28">
-      <c r="C23" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-    </row>
-    <row r="25" spans="3:28">
-      <c r="C25" s="43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="3:28">
-      <c r="C26" s="43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28">
-      <c r="C27" s="43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28">
-      <c r="C30" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-    </row>
-    <row r="32" spans="3:28">
-      <c r="D32" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-    </row>
-    <row r="33" spans="3:28">
-      <c r="D33" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="3:28">
-      <c r="D34" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="3:28">
-      <c r="D35" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="3:28">
-      <c r="D36" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="3:28">
-      <c r="D38" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-    </row>
-    <row r="39" spans="3:28">
-      <c r="D39" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="3:28">
-      <c r="C41" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-    </row>
-    <row r="42" spans="3:28">
-      <c r="C42" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECE2164-93A3-45A5-9077-096DF7F0B513}">
   <dimension ref="A1:AP15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI31" sqref="AI31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN29" sqref="AN29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
@@ -8333,111 +6816,111 @@
   <sheetData>
     <row r="1" spans="1:42" ht="14.25" customHeight="1">
       <c r="AH1" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="14.25" customHeight="1">
+      <c r="A3" s="109" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="104"/>
-      <c r="AO3" s="104"/>
-      <c r="AP3" s="105"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="110"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="111"/>
     </row>
     <row r="4" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="108"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="114"/>
     </row>
     <row r="5" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A5" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
+      <c r="A5" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
       <c r="D5" s="33"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -8479,81 +6962,81 @@
       <c r="AP5" s="35"/>
     </row>
     <row r="6" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="36"/>
       <c r="Q6" s="36"/>
       <c r="AP6" s="37"/>
     </row>
     <row r="7" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="36"/>
       <c r="Q7" s="36"/>
       <c r="AP7" s="37"/>
     </row>
     <row r="8" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A8" s="98"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="36"/>
       <c r="Q8" s="36"/>
       <c r="AP8" s="37"/>
     </row>
     <row r="9" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="99"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="36"/>
       <c r="Q9" s="36"/>
       <c r="AP9" s="37"/>
     </row>
     <row r="10" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="99"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="36"/>
       <c r="Q10" s="36"/>
       <c r="AP10" s="37"/>
     </row>
     <row r="11" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="99"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="AP11" s="37"/>
     </row>
     <row r="12" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="AP12" s="37"/>
     </row>
     <row r="13" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="36"/>
       <c r="Q13" s="36"/>
       <c r="AP13" s="37"/>
     </row>
     <row r="14" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="36"/>
       <c r="Q14" s="36"/>
       <c r="AP14" s="37"/>
     </row>
     <row r="15" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -8609,7 +7092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A578240-AF38-4308-87C4-BA19A4B50336}">
   <dimension ref="B2:AK24"/>
   <sheetViews>
@@ -8619,760 +7102,760 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="46"/>
+    <col min="1" max="16384" width="2.625" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:37">
-      <c r="B2" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
+      <c r="B2" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
     </row>
     <row r="3" spans="2:37">
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-    </row>
-    <row r="4" spans="2:37" s="47" customFormat="1"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+    </row>
+    <row r="4" spans="2:37" s="43" customFormat="1"/>
     <row r="5" spans="2:37">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="51"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="47"/>
     </row>
     <row r="6" spans="2:37">
-      <c r="B6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="54"/>
+      <c r="B6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="50"/>
     </row>
     <row r="7" spans="2:37">
-      <c r="B7" s="52"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="54"/>
+      <c r="B7" s="48"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="50"/>
     </row>
     <row r="8" spans="2:37">
-      <c r="B8" s="52"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="54"/>
+      <c r="B8" s="48"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="50"/>
     </row>
     <row r="9" spans="2:37">
-      <c r="B9" s="52"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="54"/>
+      <c r="B9" s="48"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="50"/>
     </row>
     <row r="10" spans="2:37">
-      <c r="B10" s="52"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="54"/>
+      <c r="B10" s="48"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="50"/>
     </row>
     <row r="11" spans="2:37">
-      <c r="B11" s="52"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="54"/>
+      <c r="B11" s="48"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="50"/>
     </row>
     <row r="12" spans="2:37">
-      <c r="B12" s="52"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="54"/>
+      <c r="B12" s="48"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="50"/>
     </row>
     <row r="13" spans="2:37">
-      <c r="B13" s="52"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="54"/>
+      <c r="B13" s="48"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="50"/>
     </row>
     <row r="14" spans="2:37">
-      <c r="B14" s="52"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="54"/>
+      <c r="B14" s="48"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="50"/>
     </row>
     <row r="15" spans="2:37">
-      <c r="B15" s="52"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="54"/>
+      <c r="B15" s="48"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="50"/>
     </row>
     <row r="16" spans="2:37">
-      <c r="B16" s="52"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="54"/>
+      <c r="B16" s="48"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="50"/>
     </row>
     <row r="17" spans="2:37">
-      <c r="B17" s="52"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="54"/>
+      <c r="B17" s="48"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="50"/>
     </row>
     <row r="18" spans="2:37">
-      <c r="B18" s="52"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="54"/>
+      <c r="B18" s="48"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="50"/>
     </row>
     <row r="19" spans="2:37">
-      <c r="B19" s="52"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="54"/>
+      <c r="B19" s="48"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="50"/>
     </row>
     <row r="20" spans="2:37">
-      <c r="B20" s="52"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="54"/>
+      <c r="B20" s="48"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="50"/>
     </row>
     <row r="21" spans="2:37">
-      <c r="B21" s="52"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="54"/>
+      <c r="B21" s="48"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="50"/>
     </row>
     <row r="22" spans="2:37">
-      <c r="B22" s="52"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="54"/>
+      <c r="B22" s="48"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="50"/>
     </row>
     <row r="23" spans="2:37">
-      <c r="B23" s="52"/>
-      <c r="AK23" s="54"/>
+      <c r="B23" s="48"/>
+      <c r="AK23" s="50"/>
     </row>
     <row r="24" spans="2:37">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="57"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="58"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9387,1365 +7870,1248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7FA662-1697-424C-934D-FCD96E639140}">
   <dimension ref="B2:AL58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="60"/>
+    <col min="1" max="16384" width="2.625" style="56"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="19.5">
-      <c r="B2" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
+      <c r="B2" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
     </row>
     <row r="3" spans="2:38" ht="15" thickBot="1"/>
     <row r="4" spans="2:38">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="115"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="78"/>
     </row>
     <row r="5" spans="2:38">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="132" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="134"/>
-      <c r="T5" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="U5" s="134"/>
-      <c r="V5" s="132" t="s">
+      <c r="S5" s="126"/>
+      <c r="T5" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="126"/>
+      <c r="V5" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="134"/>
-      <c r="X5" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="132" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="118"/>
-      <c r="AG5" s="60" t="s">
-        <v>104</v>
+      <c r="W5" s="126"/>
+      <c r="X5" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="80"/>
+      <c r="AG5" s="56" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:38">
-      <c r="B6" s="116"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="117"/>
-      <c r="AC6" s="117"/>
-      <c r="AD6" s="118"/>
+      <c r="B6" s="79"/>
+      <c r="AD6" s="80"/>
     </row>
     <row r="7" spans="2:38">
-      <c r="B7" s="116"/>
-      <c r="C7" s="74" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="72"/>
+      <c r="U7" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="72"/>
+      <c r="W7" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="80"/>
+    </row>
+    <row r="8" spans="2:38">
+      <c r="B8" s="79"/>
+      <c r="C8" s="67">
+        <v>1</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="74"/>
+      <c r="U8" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="74"/>
+      <c r="W8" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="80"/>
+    </row>
+    <row r="9" spans="2:38">
+      <c r="B9" s="79"/>
+      <c r="C9" s="67">
+        <v>2</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="74"/>
+      <c r="U9" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="74"/>
+      <c r="W9" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="80"/>
+    </row>
+    <row r="10" spans="2:38">
+      <c r="B10" s="79"/>
+      <c r="C10" s="67">
+        <v>3</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="74"/>
+      <c r="U10" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" s="74"/>
+      <c r="W10" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="80"/>
+    </row>
+    <row r="11" spans="2:38">
+      <c r="B11" s="79"/>
+      <c r="C11" s="67">
+        <v>4</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="74" t="s">
+      <c r="T11" s="74"/>
+      <c r="U11" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="74" t="s">
+      <c r="V11" s="74"/>
+      <c r="W11" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="80"/>
+    </row>
+    <row r="12" spans="2:38">
+      <c r="B12" s="79"/>
+      <c r="C12" s="67">
+        <v>5</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="74" t="s">
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="74" t="s">
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="76"/>
-      <c r="U7" s="74" t="s">
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="76"/>
-      <c r="W7" s="74" t="s">
+      <c r="T12" s="74"/>
+      <c r="U12" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="V12" s="74"/>
+      <c r="W12" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="80"/>
+    </row>
+    <row r="13" spans="2:38">
+      <c r="B13" s="79"/>
+      <c r="AD13" s="80"/>
+    </row>
+    <row r="14" spans="2:38">
+      <c r="B14" s="79"/>
+      <c r="C14" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="128"/>
+      <c r="L14" s="67">
+        <v>1</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73">
+        <v>5</v>
+      </c>
+      <c r="P14" s="74"/>
+      <c r="AD14" s="80"/>
+      <c r="AG14" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" ht="15" thickBot="1">
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="84"/>
+    </row>
+    <row r="18" spans="2:38">
+      <c r="R18" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" ht="19.5">
+      <c r="B21" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="86"/>
+    </row>
+    <row r="22" spans="2:38" s="57" customFormat="1"/>
+    <row r="23" spans="2:38">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="57"/>
+    </row>
+    <row r="24" spans="2:38">
+      <c r="B24" s="61"/>
+      <c r="C24" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="57"/>
+    </row>
+    <row r="25" spans="2:38">
+      <c r="B25" s="61"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="57"/>
+    </row>
+    <row r="26" spans="2:38">
+      <c r="B26" s="61"/>
+      <c r="C26" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="57"/>
+    </row>
+    <row r="27" spans="2:38">
+      <c r="B27" s="61"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="57"/>
+    </row>
+    <row r="28" spans="2:38">
+      <c r="B28" s="61"/>
+      <c r="C28" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="67"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="88"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="57"/>
+    </row>
+    <row r="29" spans="2:38">
+      <c r="B29" s="61"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="57"/>
+    </row>
+    <row r="30" spans="2:38">
+      <c r="B30" s="61"/>
+      <c r="J30" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="57"/>
+    </row>
+    <row r="31" spans="2:38">
+      <c r="B31" s="61"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="57"/>
+    </row>
+    <row r="32" spans="2:38">
+      <c r="B32" s="61"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="57"/>
+    </row>
+    <row r="33" spans="2:38">
+      <c r="B33" s="61"/>
+      <c r="C33" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="G33" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="129"/>
+      <c r="I33" s="126"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="57"/>
+    </row>
+    <row r="34" spans="2:38">
+      <c r="B34" s="61"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="57"/>
+    </row>
+    <row r="35" spans="2:38">
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="57"/>
+    </row>
+    <row r="36" spans="2:38">
+      <c r="AB36" s="57"/>
+    </row>
+    <row r="38" spans="2:38" ht="19.5">
+      <c r="B38" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="86"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="86"/>
+      <c r="AA38" s="86"/>
+      <c r="AB38" s="86"/>
+      <c r="AC38" s="86"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
+      <c r="AF38" s="86"/>
+      <c r="AG38" s="86"/>
+      <c r="AH38" s="86"/>
+      <c r="AI38" s="86"/>
+      <c r="AJ38" s="86"/>
+      <c r="AK38" s="86"/>
+      <c r="AL38" s="86"/>
+    </row>
+    <row r="40" spans="2:38">
+      <c r="B40" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38">
+      <c r="B41" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" s="72"/>
+      <c r="T41" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" s="72"/>
+      <c r="V41" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="71"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="72"/>
+    </row>
+    <row r="42" spans="2:38">
+      <c r="B42" s="67">
+        <v>1</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="73"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42" s="74"/>
+      <c r="T42" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="U42" s="74"/>
+      <c r="V42" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="74"/>
+    </row>
+    <row r="43" spans="2:38">
+      <c r="B43" s="67">
+        <v>2</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="73"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" s="74"/>
+      <c r="T43" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="118"/>
-    </row>
-    <row r="8" spans="2:38">
-      <c r="B8" s="116"/>
-      <c r="C8" s="71">
-        <v>1</v>
-      </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="71" t="s">
+      <c r="U43" s="74"/>
+      <c r="V43" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="74"/>
+    </row>
+    <row r="44" spans="2:38">
+      <c r="B44" s="67">
+        <v>3</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44" s="74"/>
+      <c r="T44" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" s="74"/>
+      <c r="V44" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="74"/>
+    </row>
+    <row r="45" spans="2:38">
+      <c r="B45" s="67">
+        <v>4</v>
+      </c>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="S45" s="74"/>
+      <c r="T45" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="U45" s="74"/>
+      <c r="V45" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="74"/>
+    </row>
+    <row r="46" spans="2:38">
+      <c r="B46" s="67">
+        <v>5</v>
+      </c>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="73"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="S46" s="74"/>
+      <c r="T46" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="T8" s="78"/>
-      <c r="U8" s="71" t="s">
+      <c r="U46" s="74"/>
+      <c r="V46" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="74"/>
+    </row>
+    <row r="48" spans="2:38" ht="19.5">
+      <c r="B48" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="V8" s="78"/>
-      <c r="W8" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="118"/>
-    </row>
-    <row r="9" spans="2:38">
-      <c r="B9" s="116"/>
-      <c r="C9" s="71">
-        <v>2</v>
-      </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="71" t="s">
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="86"/>
+      <c r="O48" s="86"/>
+      <c r="P48" s="86"/>
+      <c r="Q48" s="86"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="86"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="86"/>
+      <c r="W48" s="86"/>
+      <c r="X48" s="86"/>
+      <c r="Y48" s="86"/>
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="86"/>
+      <c r="AB48" s="86"/>
+      <c r="AC48" s="86"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="86"/>
+      <c r="AF48" s="86"/>
+      <c r="AG48" s="86"/>
+      <c r="AH48" s="86"/>
+      <c r="AI48" s="86"/>
+      <c r="AJ48" s="86"/>
+      <c r="AK48" s="86"/>
+      <c r="AL48" s="86"/>
+    </row>
+    <row r="50" spans="2:38">
+      <c r="B50" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:38" ht="19.5">
+      <c r="B52" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="78"/>
-      <c r="U9" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="V9" s="78"/>
-      <c r="W9" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="118"/>
-    </row>
-    <row r="10" spans="2:38">
-      <c r="B10" s="116"/>
-      <c r="C10" s="71">
-        <v>3</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="78"/>
-      <c r="U10" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="V10" s="78"/>
-      <c r="W10" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="118"/>
-    </row>
-    <row r="11" spans="2:38">
-      <c r="B11" s="116"/>
-      <c r="C11" s="71">
-        <v>4</v>
-      </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="T11" s="78"/>
-      <c r="U11" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="118"/>
-    </row>
-    <row r="12" spans="2:38">
-      <c r="B12" s="116"/>
-      <c r="C12" s="71">
-        <v>5</v>
-      </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="71" t="s">
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="86"/>
+      <c r="O52" s="86"/>
+      <c r="P52" s="86"/>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="86"/>
+      <c r="Z52" s="86"/>
+      <c r="AA52" s="86"/>
+      <c r="AB52" s="86"/>
+      <c r="AC52" s="86"/>
+      <c r="AD52" s="86"/>
+      <c r="AE52" s="86"/>
+      <c r="AF52" s="86"/>
+      <c r="AG52" s="86"/>
+      <c r="AH52" s="86"/>
+      <c r="AI52" s="86"/>
+      <c r="AJ52" s="86"/>
+      <c r="AK52" s="86"/>
+      <c r="AL52" s="86"/>
+    </row>
+    <row r="54" spans="2:38">
+      <c r="B54" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="71" t="s">
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="93"/>
+    </row>
+    <row r="55" spans="2:38">
+      <c r="B55" s="61"/>
+      <c r="AD55" s="66"/>
+    </row>
+    <row r="56" spans="2:38">
+      <c r="B56" s="61"/>
+      <c r="D56" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="T12" s="78"/>
-      <c r="U12" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12" s="78"/>
-      <c r="W12" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="118"/>
-    </row>
-    <row r="13" spans="2:38">
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="118"/>
-    </row>
-    <row r="14" spans="2:38">
-      <c r="B14" s="116"/>
-      <c r="C14" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="71">
-        <v>1</v>
-      </c>
-      <c r="M14" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77">
-        <v>5</v>
-      </c>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="118"/>
-      <c r="AG14" s="60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="2:38" ht="15" thickBot="1">
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="122"/>
-    </row>
-    <row r="18" spans="2:38">
-      <c r="R18" s="60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" ht="19.5">
-      <c r="B21" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="125"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="125"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="125"/>
-      <c r="AB21" s="125"/>
-      <c r="AC21" s="125"/>
-      <c r="AD21" s="125"/>
-      <c r="AE21" s="125"/>
-      <c r="AF21" s="125"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="125"/>
-      <c r="AJ21" s="125"/>
-      <c r="AK21" s="125"/>
-      <c r="AL21" s="125"/>
-    </row>
-    <row r="22" spans="2:38" s="61" customFormat="1"/>
-    <row r="23" spans="2:38">
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="61"/>
-    </row>
-    <row r="24" spans="2:38">
-      <c r="B24" s="65"/>
-      <c r="C24" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="61"/>
-    </row>
-    <row r="25" spans="2:38">
-      <c r="B25" s="65"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="61"/>
-    </row>
-    <row r="26" spans="2:38">
-      <c r="B26" s="65"/>
-      <c r="C26" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="61"/>
-    </row>
-    <row r="27" spans="2:38">
-      <c r="B27" s="65"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="61"/>
-    </row>
-    <row r="28" spans="2:38">
-      <c r="B28" s="65"/>
-      <c r="C28" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="127"/>
-      <c r="AA28" s="70"/>
-      <c r="AB28" s="61"/>
-    </row>
-    <row r="29" spans="2:38">
-      <c r="B29" s="65"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="61"/>
-    </row>
-    <row r="30" spans="2:38">
-      <c r="B30" s="65"/>
-      <c r="J30" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="61"/>
-    </row>
-    <row r="31" spans="2:38">
-      <c r="B31" s="65"/>
-      <c r="AA31" s="70"/>
-      <c r="AB31" s="61"/>
-    </row>
-    <row r="32" spans="2:38">
-      <c r="B32" s="65"/>
-      <c r="AA32" s="70"/>
-      <c r="AB32" s="61"/>
-    </row>
-    <row r="33" spans="2:38">
-      <c r="B33" s="65"/>
-      <c r="C33" s="129" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="G33" s="132" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="133"/>
-      <c r="I33" s="134"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="61"/>
-    </row>
-    <row r="34" spans="2:38">
-      <c r="B34" s="65"/>
-      <c r="AA34" s="70"/>
-      <c r="AB34" s="61"/>
-    </row>
-    <row r="35" spans="2:38">
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="61"/>
-    </row>
-    <row r="36" spans="2:38">
-      <c r="AB36" s="61"/>
-    </row>
-    <row r="38" spans="2:38" ht="19.5">
-      <c r="B38" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="125"/>
-      <c r="T38" s="125"/>
-      <c r="U38" s="125"/>
-      <c r="V38" s="125"/>
-      <c r="W38" s="125"/>
-      <c r="X38" s="125"/>
-      <c r="Y38" s="125"/>
-      <c r="Z38" s="125"/>
-      <c r="AA38" s="125"/>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="125"/>
-      <c r="AD38" s="125"/>
-      <c r="AE38" s="125"/>
-      <c r="AF38" s="125"/>
-      <c r="AG38" s="125"/>
-      <c r="AH38" s="125"/>
-      <c r="AI38" s="125"/>
-      <c r="AJ38" s="125"/>
-      <c r="AK38" s="125"/>
-      <c r="AL38" s="125"/>
-    </row>
-    <row r="40" spans="2:38">
-      <c r="B40" s="60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:38">
-      <c r="B41" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="S41" s="76"/>
-      <c r="T41" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="U41" s="76"/>
-      <c r="V41" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
-      <c r="AA41" s="75"/>
-      <c r="AB41" s="76"/>
-    </row>
-    <row r="42" spans="2:38">
-      <c r="B42" s="71">
-        <v>1</v>
-      </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="S42" s="78"/>
-      <c r="T42" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="U42" s="78"/>
-      <c r="V42" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
-      <c r="Y42" s="77"/>
-      <c r="Z42" s="77"/>
-      <c r="AA42" s="77"/>
-      <c r="AB42" s="78"/>
-    </row>
-    <row r="43" spans="2:38">
-      <c r="B43" s="71">
-        <v>2</v>
-      </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="S43" s="78"/>
-      <c r="T43" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="U43" s="78"/>
-      <c r="V43" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="W43" s="77"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="77"/>
-      <c r="AB43" s="78"/>
-    </row>
-    <row r="44" spans="2:38">
-      <c r="B44" s="71">
-        <v>3</v>
-      </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="77"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="S44" s="78"/>
-      <c r="T44" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="U44" s="78"/>
-      <c r="V44" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="W44" s="77"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="77"/>
-      <c r="Z44" s="77"/>
-      <c r="AA44" s="77"/>
-      <c r="AB44" s="78"/>
-    </row>
-    <row r="45" spans="2:38">
-      <c r="B45" s="71">
-        <v>4</v>
-      </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="78"/>
-      <c r="R45" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="S45" s="78"/>
-      <c r="T45" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="U45" s="78"/>
-      <c r="V45" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="W45" s="77"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="77"/>
-      <c r="AA45" s="77"/>
-      <c r="AB45" s="78"/>
-    </row>
-    <row r="46" spans="2:38">
-      <c r="B46" s="71">
-        <v>5</v>
-      </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="S46" s="78"/>
-      <c r="T46" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="U46" s="78"/>
-      <c r="V46" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="W46" s="77"/>
-      <c r="X46" s="77"/>
-      <c r="Y46" s="77"/>
-      <c r="Z46" s="77"/>
-      <c r="AA46" s="77"/>
-      <c r="AB46" s="78"/>
-    </row>
-    <row r="48" spans="2:38" ht="19.5">
-      <c r="B48" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="125"/>
-      <c r="O48" s="125"/>
-      <c r="P48" s="125"/>
-      <c r="Q48" s="125"/>
-      <c r="R48" s="125"/>
-      <c r="S48" s="125"/>
-      <c r="T48" s="125"/>
-      <c r="U48" s="125"/>
-      <c r="V48" s="125"/>
-      <c r="W48" s="125"/>
-      <c r="X48" s="125"/>
-      <c r="Y48" s="125"/>
-      <c r="Z48" s="125"/>
-      <c r="AA48" s="125"/>
-      <c r="AB48" s="125"/>
-      <c r="AC48" s="125"/>
-      <c r="AD48" s="125"/>
-      <c r="AE48" s="125"/>
-      <c r="AF48" s="125"/>
-      <c r="AG48" s="125"/>
-      <c r="AH48" s="125"/>
-      <c r="AI48" s="125"/>
-      <c r="AJ48" s="125"/>
-      <c r="AK48" s="125"/>
-      <c r="AL48" s="125"/>
-    </row>
-    <row r="50" spans="2:38">
-      <c r="B50" s="60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="2:38" ht="19.5">
-      <c r="B52" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="125"/>
-      <c r="R52" s="125"/>
-      <c r="S52" s="125"/>
-      <c r="T52" s="125"/>
-      <c r="U52" s="125"/>
-      <c r="V52" s="125"/>
-      <c r="W52" s="125"/>
-      <c r="X52" s="125"/>
-      <c r="Y52" s="125"/>
-      <c r="Z52" s="125"/>
-      <c r="AA52" s="125"/>
-      <c r="AB52" s="125"/>
-      <c r="AC52" s="125"/>
-      <c r="AD52" s="125"/>
-      <c r="AE52" s="125"/>
-      <c r="AF52" s="125"/>
-      <c r="AG52" s="125"/>
-      <c r="AH52" s="125"/>
-      <c r="AI52" s="125"/>
-      <c r="AJ52" s="125"/>
-      <c r="AK52" s="125"/>
-      <c r="AL52" s="125"/>
-    </row>
-    <row r="54" spans="2:38">
-      <c r="B54" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="63"/>
-      <c r="W54" s="63"/>
-      <c r="X54" s="63"/>
-      <c r="Y54" s="63"/>
-      <c r="Z54" s="63"/>
-      <c r="AA54" s="63"/>
-      <c r="AB54" s="63"/>
-      <c r="AC54" s="63"/>
-      <c r="AD54" s="135"/>
-    </row>
-    <row r="55" spans="2:38">
-      <c r="B55" s="65"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
-      <c r="M55" s="117"/>
-      <c r="N55" s="117"/>
-      <c r="O55" s="117"/>
-      <c r="P55" s="117"/>
-      <c r="Q55" s="117"/>
-      <c r="R55" s="117"/>
-      <c r="S55" s="117"/>
-      <c r="T55" s="117"/>
-      <c r="U55" s="117"/>
-      <c r="V55" s="117"/>
-      <c r="W55" s="117"/>
-      <c r="X55" s="117"/>
-      <c r="Y55" s="117"/>
-      <c r="Z55" s="117"/>
-      <c r="AA55" s="117"/>
-      <c r="AB55" s="117"/>
-      <c r="AC55" s="117"/>
-      <c r="AD55" s="70"/>
-    </row>
-    <row r="56" spans="2:38">
-      <c r="B56" s="65"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="63"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="63"/>
-      <c r="W56" s="63"/>
-      <c r="X56" s="63"/>
-      <c r="Y56" s="63"/>
-      <c r="Z56" s="63"/>
-      <c r="AA56" s="63"/>
-      <c r="AB56" s="135"/>
-      <c r="AC56" s="117"/>
-      <c r="AD56" s="70"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="93"/>
+      <c r="AD56" s="66"/>
     </row>
     <row r="57" spans="2:38">
-      <c r="B57" s="65"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="73"/>
-      <c r="AC57" s="117"/>
-      <c r="AD57" s="70"/>
+      <c r="B57" s="61"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
+      <c r="Z57" s="64"/>
+      <c r="AA57" s="64"/>
+      <c r="AB57" s="69"/>
+      <c r="AD57" s="66"/>
     </row>
     <row r="58" spans="2:38">
-      <c r="B58" s="67"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="73"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="64"/>
+      <c r="Y58" s="64"/>
+      <c r="Z58" s="64"/>
+      <c r="AA58" s="64"/>
+      <c r="AB58" s="64"/>
+      <c r="AC58" s="64"/>
+      <c r="AD58" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="8">
